--- a/01_MCUv7/Расчет_значений_для_таймеров.xlsx
+++ b/01_MCUv7/Расчет_значений_для_таймеров.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Git\Git_Biganto\01_MCUv7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Git\GitLab\mcu-v7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CEB2A8-65EC-4B20-ABF6-DA9DCB05B1A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D9A9D-16EA-453C-8A58-718E8B9CC1ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A3422288-DE2C-43D5-8C14-412806E61479}"/>
   </bookViews>
@@ -129,6 +129,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Частота</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -489,6 +514,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Период</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1951,15 +2001,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1987,15 +2037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2322,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D06F4-9B2C-402E-9FDD-363960C1E336}">
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
